--- a/Magic Squares.xlsx
+++ b/Magic Squares.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\magicbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27A41A8-BA28-444F-A35F-85398F638DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B398904A-4AC8-4D1D-A6EB-353ABCF82E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,15 @@
     <sheet name="6x6" sheetId="6" r:id="rId6"/>
     <sheet name="4x4" sheetId="7" r:id="rId7"/>
     <sheet name="8 x 8" sheetId="8" r:id="rId8"/>
-    <sheet name="week 19 day 1" sheetId="9" r:id="rId9"/>
-    <sheet name="week 19 day 2" sheetId="10" r:id="rId10"/>
-    <sheet name="10th June" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>rule 1 start with top center</t>
-  </si>
-  <si>
-    <t>rule 1</t>
   </si>
   <si>
     <t>rule 2 increment by 1 and place in the row above the current one and to the right</t>
@@ -45,9 +39,6 @@
   </si>
   <si>
     <t>rule 4 if you out of the box from the right by following rule 2 you select the first column from the row above</t>
-  </si>
-  <si>
-    <t>rule 5 by following rule 2 you end up in a cell that is already occupied , then select the row below the original cell</t>
   </si>
   <si>
     <t>rule 6 if you go out of the box from the top and right you follow rule 5</t>
@@ -125,382 +116,7 @@
     <t>start from last column 1st row</t>
   </si>
   <si>
-    <t>/*Create a 3 x 3 2d array and fill values 1 to 9 in array using for loop.</t>
-  </si>
-  <si>
-    <t>then print only 2nd row values.*/</t>
-  </si>
-  <si>
-    <t>let array2D = [[],[],[]];</t>
-  </si>
-  <si>
-    <t>let num = 1;</t>
-  </si>
-  <si>
-    <t>for(let i = 0; i &lt; 3; i++){</t>
-  </si>
-  <si>
-    <t>for(let j = 0; j &lt; 3; j++){</t>
-  </si>
-  <si>
-    <t>array2D[i][j]=num;</t>
-  </si>
-  <si>
-    <t>num++;</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>}//end loop</t>
-  </si>
-  <si>
-    <t>print("Second row values " + array2D[1])</t>
-  </si>
-  <si>
-    <t>/*Create a 3 x 3 2d array and fill values 11 to 19 in array using for loop.</t>
-  </si>
-  <si>
-    <t>then print 1st and last row of array.</t>
-  </si>
-  <si>
-    <t>*/</t>
-  </si>
-  <si>
-    <t>let array11To19 = [[],[],[]];</t>
-  </si>
-  <si>
-    <t>let num1 = 11;</t>
-  </si>
-  <si>
-    <t>array11To19[i][j]=num1;</t>
-  </si>
-  <si>
-    <t>num1++;</t>
-  </si>
-  <si>
-    <t>print("First Row values:"+ array11To19[0] + "\n" +"Last Row values :"+array11To19[2])</t>
-  </si>
-  <si>
-    <t>/*Create a 3 x 3 2d array and fill values 21 to 29 in array using for loop.</t>
-  </si>
-  <si>
-    <t>then print only 2nd column values.</t>
-  </si>
-  <si>
-    <t>let array21To29 = [[],[],[]];</t>
-  </si>
-  <si>
-    <t>let num2 = 21;</t>
-  </si>
-  <si>
-    <t>for(let j = 0; j &lt; 3;j++){</t>
-  </si>
-  <si>
-    <t>array21To29[i][j]=num2;</t>
-  </si>
-  <si>
-    <t>num2++;</t>
-  </si>
-  <si>
-    <t>for(i = 0; i &lt; 3; i++)</t>
-  </si>
-  <si>
-    <t>print("Second Column Values : " + array21To29[i][1])</t>
-  </si>
-  <si>
-    <t>/*Create a 3 x 3 2d array and fill values 31 to 39 in array using for loop.</t>
-  </si>
-  <si>
-    <t>then print 1st and last column of array.*/</t>
-  </si>
-  <si>
-    <t>let array31To39 = [[],[],[]];</t>
-  </si>
-  <si>
-    <t>let num3 = 31;</t>
-  </si>
-  <si>
-    <t>for(let i = 0; i &lt; 3;i++){</t>
-  </si>
-  <si>
-    <t>array31To39[i][j]=num3;</t>
-  </si>
-  <si>
-    <t>num3++;</t>
-  </si>
-  <si>
-    <t>for(i = 0; i &lt; 3;i++)</t>
-  </si>
-  <si>
-    <t>print("first column: "+ array31To39[i][0] +"\n" + "last column: "+ array31To39[i][2])</t>
-  </si>
-  <si>
     <t>rule 5 by following rule 2 you end up in a cell that is already occupied , then select the row below the same cell</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>if you start with any position except center, then rule no. 7 also applies</t>
-  </si>
-  <si>
-    <t>rule 7 if you go out of the box from the bottom by applying rule 5, then select first row of the same column</t>
-  </si>
-  <si>
-    <t>step 1</t>
-  </si>
-  <si>
-    <t>rule no 1 hardcode</t>
-  </si>
-  <si>
-    <t>step 2</t>
-  </si>
-  <si>
-    <t>single loop running 9 values</t>
-  </si>
-  <si>
-    <t>step 3</t>
-  </si>
-  <si>
-    <t>i/j</t>
-  </si>
-  <si>
-    <t>if i === 0 &amp;&amp; j === 2</t>
-  </si>
-  <si>
-    <t>then num = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(i == </t>
-  </si>
-  <si>
-    <t>function generateSquare(n)</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>magicSquare = Array(n).fill(0).map(x =&gt; Array(n).fill(0));</t>
-  </si>
-  <si>
-    <t>// Initialize position for 1</t>
-  </si>
-  <si>
-    <t>let i = parseInt(n / 2);</t>
-  </si>
-  <si>
-    <t>var j = n - 1;</t>
-  </si>
-  <si>
-    <t>// One by one put all values in magic square</t>
-  </si>
-  <si>
-    <t>for (num = 1; num &lt;= n * n;) {</t>
-  </si>
-  <si>
-    <t>if (i == -1 &amp;&amp; j == n) // 3rd condition</t>
-  </si>
-  <si>
-    <t>j = n - 2;</t>
-  </si>
-  <si>
-    <t>i = 0;</t>
-  </si>
-  <si>
-    <t>else {</t>
-  </si>
-  <si>
-    <t>// 1st condition helper if next number</t>
-  </si>
-  <si>
-    <t>// goes to out of square's right side</t>
-  </si>
-  <si>
-    <t>if (j == n)</t>
-  </si>
-  <si>
-    <t>j = 0;</t>
-  </si>
-  <si>
-    <t>// 1st condition helper if next number is</t>
-  </si>
-  <si>
-    <t>// goes to out of square's upper side</t>
-  </si>
-  <si>
-    <t>if (i &lt; 0)</t>
-  </si>
-  <si>
-    <t>i = n - 1;</t>
-  </si>
-  <si>
-    <t>// 2nd condition</t>
-  </si>
-  <si>
-    <t>if (magicSquare[i][j] !== 0) {</t>
-  </si>
-  <si>
-    <t>j -= 2;</t>
-  </si>
-  <si>
-    <t>i++;</t>
-  </si>
-  <si>
-    <t>continue;</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>// set number</t>
-  </si>
-  <si>
-    <t>magicSquare[i][j] = num++;</t>
-  </si>
-  <si>
-    <t>// 1st condition</t>
-  </si>
-  <si>
-    <t>j++;</t>
-  </si>
-  <si>
-    <t>i--;</t>
-  </si>
-  <si>
-    <t>// document.write magic square</t>
-  </si>
-  <si>
-    <t>document.write("The Magic Square for " + n</t>
-  </si>
-  <si>
-    <t>document.write("Sum of each row or column "</t>
-  </si>
-  <si>
-    <t>for (i = 0; i &lt; n; i++) {</t>
-  </si>
-  <si>
-    <t>for (j = 0; j &lt; n; j++)</t>
-  </si>
-  <si>
-    <t>document.write(magicSquare[i][j] + " ");</t>
-  </si>
-  <si>
-    <t>document.write("&lt;br&gt;");</t>
-  </si>
-  <si>
-    <t>// driver program</t>
-  </si>
-  <si>
-    <t>// Works only when n is odd</t>
-  </si>
-  <si>
-    <t>var n = 3;</t>
-  </si>
-  <si>
-    <t>generateSquare(n);</t>
-  </si>
-  <si>
-    <t>&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>if(i &lt; 0 &amp;&amp; j == 2)</t>
-  </si>
-  <si>
-    <t>then num = 2 and 2 will be placed in i2 &amp;&amp; j2</t>
-  </si>
-  <si>
-    <t>if(i == 1 &amp;&amp; j ==3) then num = 3 and 3 will be placed in i1 &amp;&amp; j0</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>already occupied</t>
-  </si>
-  <si>
-    <t>top right</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>if conditions</t>
-  </si>
-  <si>
-    <t>let array2D =[[0,0,0],</t>
-  </si>
-  <si>
-    <t>[0,0,0],</t>
-  </si>
-  <si>
-    <t>[0,0,0]];</t>
-  </si>
-  <si>
-    <t>//position of number 1</t>
-  </si>
-  <si>
-    <t>let i = 0;</t>
-  </si>
-  <si>
-    <t>let j = 1;</t>
-  </si>
-  <si>
-    <t>// first make loop to put values in the 3x3 array</t>
-  </si>
-  <si>
-    <t>for(num = 1; num &lt;=9; num++){</t>
-  </si>
-  <si>
-    <t>// if condition for when index goes out from top and right at the same time</t>
-  </si>
-  <si>
-    <t>if(i &lt; 0 &amp;&amp; j &gt; 2){</t>
-  </si>
-  <si>
-    <t>i += 2;</t>
-  </si>
-  <si>
-    <t>j --;</t>
-  </si>
-  <si>
-    <t>// if condition for whe index goes out from top only</t>
-  </si>
-  <si>
-    <t>if(i &lt; 0){</t>
-  </si>
-  <si>
-    <t>i = 2;</t>
-  </si>
-  <si>
-    <t>// if condition for when index goes out from right only</t>
-  </si>
-  <si>
-    <t>if(j &gt; 2){</t>
-  </si>
-  <si>
-    <t>//if condition for when current index location is already filled</t>
-  </si>
-  <si>
-    <t>if(array2D[i][j] !== 0){</t>
-  </si>
-  <si>
-    <t>array2D[i][j] = num;</t>
-  </si>
-  <si>
-    <t>j++</t>
-  </si>
-  <si>
-    <t>}// end of outer for loop</t>
-  </si>
-  <si>
-    <t>print(array2D[i]);</t>
-  </si>
-  <si>
-    <t>#ERROR!</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -510,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -546,17 +162,8 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,12 +202,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
@@ -609,30 +210,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF6D9EEB"/>
         <bgColor rgb="FF6D9EEB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE06666"/>
-        <bgColor rgb="FFE06666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF990000"/>
-        <bgColor rgb="FF990000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -720,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -761,50 +338,26 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,7 +578,7 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1047,11 +600,11 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1060,12 +613,12 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1073,65 +626,65 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -1143,7 +696,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="2" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -1156,7 +709,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -1169,79 +722,79 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="2" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <v>8</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <v>1</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <v>6</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="26">
         <f t="shared" ref="E11:E13" si="0">SUM(B11:D11)</f>
         <v>15</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="33">
+      <c r="B12" s="27">
         <v>3</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="28">
         <v>5</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="28">
         <v>7</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="33">
+      <c r="B13" s="27">
         <v>4</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="28">
         <v>9</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="28">
         <v>2</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="28">
+      <c r="B14" s="26">
         <f t="shared" ref="B14:D14" si="1">SUM(B11:B13)</f>
         <v>15</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="26">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="26">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="26">
         <f>SUM(B11,C12,D13
 )</f>
         <v>15</v>
@@ -1320,1335 +873,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:R110"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26">
-        <v>8</v>
-      </c>
-      <c r="C10" s="27">
-        <v>1</v>
-      </c>
-      <c r="D10" s="27">
-        <v>6</v>
-      </c>
-      <c r="E10" s="28">
-        <f t="shared" ref="E10:E12" si="0">SUM(B10:D10)</f>
-        <v>15</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30">
-        <v>6</v>
-      </c>
-      <c r="H10" s="31">
-        <v>8</v>
-      </c>
-      <c r="I10" s="31">
-        <v>1</v>
-      </c>
-      <c r="J10" s="32">
-        <f t="shared" ref="J10:J12" si="1">SUM(G10:I10)</f>
-        <v>15</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="33">
-        <v>3</v>
-      </c>
-      <c r="C11" s="34">
-        <v>5</v>
-      </c>
-      <c r="D11" s="34">
-        <v>7</v>
-      </c>
-      <c r="E11" s="28">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="35">
-        <v>7</v>
-      </c>
-      <c r="H11" s="36">
-        <v>3</v>
-      </c>
-      <c r="I11" s="36">
-        <v>5</v>
-      </c>
-      <c r="J11" s="32">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="33">
-        <v>4</v>
-      </c>
-      <c r="C12" s="34">
-        <v>9</v>
-      </c>
-      <c r="D12" s="34">
-        <v>2</v>
-      </c>
-      <c r="E12" s="28">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="35">
-        <v>2</v>
-      </c>
-      <c r="H12" s="36">
-        <v>4</v>
-      </c>
-      <c r="I12" s="36">
-        <v>9</v>
-      </c>
-      <c r="J12" s="32">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
-        <f>SUM(B12,C11,D10
-)</f>
-        <v>15</v>
-      </c>
-      <c r="B13" s="28">
-        <f t="shared" ref="B13:D13" si="2">SUM(B10:B12)</f>
-        <v>15</v>
-      </c>
-      <c r="C13" s="28">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="D13" s="28">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E13" s="28">
-        <f>SUM(B10,C11,D12
-)</f>
-        <v>15</v>
-      </c>
-      <c r="F13" s="32">
-        <f>SUM(G12,H11,I10
-)</f>
-        <v>6</v>
-      </c>
-      <c r="G13" s="32">
-        <f t="shared" ref="G13:I13" si="3">SUM(G10:G12)</f>
-        <v>15</v>
-      </c>
-      <c r="H13" s="32">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="I13" s="32">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="J13" s="32">
-        <f>SUM(G10,H11,I12
-)</f>
-        <v>18</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="26">
-        <v>5</v>
-      </c>
-      <c r="C15" s="27">
-        <v>7</v>
-      </c>
-      <c r="D15" s="27">
-        <v>3</v>
-      </c>
-      <c r="E15" s="28">
-        <f t="shared" ref="E15:E17" si="4">SUM(B15:D15)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="33">
-        <v>9</v>
-      </c>
-      <c r="C16" s="34">
-        <v>2</v>
-      </c>
-      <c r="D16" s="34">
-        <v>4</v>
-      </c>
-      <c r="E16" s="28">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="33">
-        <v>1</v>
-      </c>
-      <c r="C17" s="34">
-        <v>6</v>
-      </c>
-      <c r="D17" s="34">
-        <v>8</v>
-      </c>
-      <c r="E17" s="28">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
-        <f>SUM(B17,C16,D15
-)</f>
-        <v>6</v>
-      </c>
-      <c r="B18" s="28">
-        <f t="shared" ref="B18:D18" si="5">SUM(B15:B17)</f>
-        <v>15</v>
-      </c>
-      <c r="C18" s="28">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="D18" s="28">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="E18" s="28">
-        <f>SUM(B15,C16,D17
-)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38">
-        <f>SUM(C37,D36,E35
-)</f>
-        <v>15</v>
-      </c>
-      <c r="H34" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B35" s="38"/>
-      <c r="C35" s="39">
-        <v>8</v>
-      </c>
-      <c r="D35" s="40">
-        <v>1</v>
-      </c>
-      <c r="E35" s="41">
-        <v>6</v>
-      </c>
-      <c r="F35" s="38">
-        <f t="shared" ref="F35:F37" si="6">SUM(C35:E35)</f>
-        <v>15</v>
-      </c>
-      <c r="H35" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B36" s="38"/>
-      <c r="C36" s="42">
-        <v>3</v>
-      </c>
-      <c r="D36" s="41">
-        <v>5</v>
-      </c>
-      <c r="E36" s="40">
-        <v>7</v>
-      </c>
-      <c r="F36" s="38">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="H36" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B37" s="38"/>
-      <c r="C37" s="41">
-        <v>4</v>
-      </c>
-      <c r="D37" s="40">
-        <v>9</v>
-      </c>
-      <c r="E37" s="41">
-        <v>2</v>
-      </c>
-      <c r="F37" s="38">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="H37" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-    </row>
-    <row r="38" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B38" s="38"/>
-      <c r="C38" s="38">
-        <f t="shared" ref="C38:E38" si="7">SUM(C35:C37)</f>
-        <v>15</v>
-      </c>
-      <c r="D38" s="38">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="E38" s="38">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="F38" s="38">
-        <f>SUM(C35,D36,E37
-)</f>
-        <v>15</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-    </row>
-    <row r="39" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H39" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-    </row>
-    <row r="43" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C43" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="11">
-        <v>1</v>
-      </c>
-      <c r="E43" s="11">
-        <v>2</v>
-      </c>
-      <c r="F43" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C44" s="11">
-        <v>0</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11">
-        <v>1</v>
-      </c>
-      <c r="F44" s="11"/>
-      <c r="H44" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C45" s="11">
-        <v>1</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="H45" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C46" s="11">
-        <v>2</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="H46" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C51" s="43"/>
-    </row>
-    <row r="52" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C52" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C53" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C54" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C56" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C57" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C58" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C60" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C61" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C62" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C63" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C64" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C65" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C66" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C67" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C68" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C69" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C70" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C71" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C73" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C74" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C75" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C76" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C77" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C79" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C80" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C81" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C82" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C83" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C84" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C85" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C86" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C87" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C89" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C90" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C91" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C92" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C94" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C95" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C96" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C97" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C98" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C99" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C100" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C101" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C102" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C103" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C104" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C106" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C107" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C108" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C109" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C110" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="H36:Q36"/>
-    <mergeCell ref="H37:R37"/>
-    <mergeCell ref="H38:R38"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A5:L59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="4.109375" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="H12" s="10">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="H13" s="10">
-        <v>2</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="10">
-        <v>3</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45">
-        <v>0</v>
-      </c>
-      <c r="D15" s="45">
-        <v>1</v>
-      </c>
-      <c r="E15" s="45">
-        <v>2</v>
-      </c>
-      <c r="F15" s="10">
-        <v>7</v>
-      </c>
-      <c r="H15" s="10">
-        <v>4</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="45">
-        <v>0</v>
-      </c>
-      <c r="C16" s="11">
-        <v>8</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11">
-        <v>6</v>
-      </c>
-      <c r="F16" s="10">
-        <v>8</v>
-      </c>
-      <c r="H16" s="10">
-        <v>5</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="45">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11">
-        <v>3</v>
-      </c>
-      <c r="D17" s="11">
-        <v>5</v>
-      </c>
-      <c r="E17" s="11">
-        <v>7</v>
-      </c>
-      <c r="H17" s="10">
-        <v>6</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B18" s="45">
-        <v>2</v>
-      </c>
-      <c r="C18" s="11">
-        <v>4</v>
-      </c>
-      <c r="D18" s="11">
-        <v>9</v>
-      </c>
-      <c r="E18" s="11">
-        <v>2</v>
-      </c>
-      <c r="H18" s="10">
-        <v>7</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="H19" s="10">
-        <v>8</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="H20" s="10">
-        <v>9</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="I21" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="I22" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C23" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C27" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C28" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C32" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C33" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C35" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C36" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C37" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C38" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C39" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C40" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C41" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C42" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C43" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C44" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C45" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C46" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C47" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C48" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C49" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C50" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C51" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C52" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C53" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C54" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C55" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C56" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C58" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C59" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2659,15 +889,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2677,7 +907,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2687,7 +917,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2697,79 +927,79 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2779,7 +1009,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2789,7 +1019,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2798,10 +1028,13 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -2821,7 +1054,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -2846,7 +1079,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -2871,7 +1104,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -2995,13 +1228,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3012,7 +1247,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3023,85 +1258,85 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="46" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="46" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3112,7 +1347,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3123,7 +1358,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="3">
         <v>30</v>
@@ -3149,8 +1384,11 @@
       <c r="I11" s="2">
         <v>175</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
         <v>38</v>
@@ -3177,7 +1415,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
         <v>46</v>
@@ -3204,7 +1442,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
         <v>5</v>
@@ -3231,7 +1469,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
         <v>13</v>
@@ -3258,7 +1496,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
         <v>21</v>
@@ -3359,9 +1597,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3393,11 +1633,11 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3408,75 +1648,75 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="B4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
+      <c r="B5" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
+      <c r="B7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
+      <c r="B8" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3497,695 +1737,370 @@
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2">
-        <v>48</v>
-      </c>
-      <c r="D10" s="2">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2">
-        <v>70</v>
-      </c>
-      <c r="F10" s="2">
-        <v>81</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>13</v>
-      </c>
-      <c r="I10" s="2">
-        <v>24</v>
-      </c>
-      <c r="J10" s="2">
-        <v>35</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="3">
-        <v>47</v>
-      </c>
-      <c r="C11" s="4">
-        <v>58</v>
-      </c>
-      <c r="D11" s="4">
-        <v>69</v>
-      </c>
-      <c r="E11" s="4">
-        <v>80</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>12</v>
-      </c>
-      <c r="H11" s="4">
-        <v>23</v>
-      </c>
-      <c r="I11" s="4">
-        <v>34</v>
-      </c>
-      <c r="J11" s="4">
-        <v>45</v>
-      </c>
-      <c r="K11" s="7">
-        <v>47</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="5">
-        <v>57</v>
-      </c>
-      <c r="C12" s="6">
-        <v>68</v>
-      </c>
-      <c r="D12" s="6">
-        <v>79</v>
-      </c>
-      <c r="E12" s="6">
-        <v>9</v>
-      </c>
-      <c r="F12" s="6">
-        <v>11</v>
-      </c>
-      <c r="G12" s="6">
-        <v>22</v>
-      </c>
-      <c r="H12" s="6">
-        <v>33</v>
-      </c>
-      <c r="I12" s="6">
-        <v>44</v>
-      </c>
-      <c r="J12" s="6">
-        <v>46</v>
-      </c>
-      <c r="K12" s="7">
-        <v>57</v>
+      <c r="B12" s="3">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4">
+        <v>58</v>
+      </c>
+      <c r="D12" s="4">
+        <v>69</v>
+      </c>
+      <c r="E12" s="4">
+        <v>80</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4">
+        <v>23</v>
+      </c>
+      <c r="I12" s="4">
+        <v>34</v>
+      </c>
+      <c r="J12" s="4">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2">
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C13" s="6">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D13" s="6">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="E13" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="6">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G13" s="6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H13" s="6">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I13" s="6">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J13" s="6">
-        <v>56</v>
-      </c>
-      <c r="K13" s="7">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="K13" s="2">
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C14" s="6">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="D14" s="6">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E14" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F14" s="6">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G14" s="6">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H14" s="6">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I14" s="6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="6">
-        <v>66</v>
-      </c>
-      <c r="K14" s="7">
-        <v>77</v>
+        <v>56</v>
+      </c>
+      <c r="K14" s="2">
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C15" s="6">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D15" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F15" s="6">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G15" s="6">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H15" s="6">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I15" s="6">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J15" s="6">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K15" s="2">
-        <v>6</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C16" s="6">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D16" s="6">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E16" s="6">
-        <v>40</v>
-      </c>
-      <c r="F16" s="6">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="F16" s="8">
+        <v>41</v>
       </c>
       <c r="G16" s="6">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H16" s="6">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="6">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J16" s="6">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="K16" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C17" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="6">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E17" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F17" s="6">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G17" s="6">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H17" s="6">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I17" s="6">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="J17" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K17" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C18" s="6">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D18" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E18" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F18" s="6">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G18" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="6">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="I18" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J18" s="6">
-        <v>25</v>
-      </c>
-      <c r="K18" s="7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K18" s="2">
+        <v>369</v>
+      </c>
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
+        <v>36</v>
+      </c>
+      <c r="C19" s="6">
+        <v>38</v>
+      </c>
+      <c r="D19" s="6">
+        <v>49</v>
+      </c>
+      <c r="E19" s="6">
+        <v>60</v>
+      </c>
+      <c r="F19" s="6">
+        <v>71</v>
+      </c>
+      <c r="G19" s="6">
+        <v>73</v>
+      </c>
+      <c r="H19" s="6">
+        <v>3</v>
+      </c>
+      <c r="I19" s="6">
+        <v>14</v>
+      </c>
+      <c r="J19" s="6">
+        <v>25</v>
+      </c>
+      <c r="K19" s="2">
+        <v>369</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5">
         <v>37</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C20" s="6">
         <v>48</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="6">
         <v>59</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="6">
         <v>70</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <v>81</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G20" s="6">
         <v>2</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H20" s="6">
         <v>13</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I20" s="6">
         <v>24</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J20" s="6">
         <v>35</v>
       </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3">
-        <v>47</v>
-      </c>
-      <c r="C23" s="4">
-        <v>58</v>
-      </c>
-      <c r="D23" s="4">
-        <v>69</v>
-      </c>
-      <c r="E23" s="4">
-        <v>80</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
-        <v>12</v>
-      </c>
-      <c r="H23" s="4">
-        <v>23</v>
-      </c>
-      <c r="I23" s="4">
-        <v>34</v>
-      </c>
-      <c r="J23" s="4">
-        <v>45</v>
-      </c>
-      <c r="K23" s="2">
+      <c r="K20" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="5">
-        <v>57</v>
-      </c>
-      <c r="C24" s="6">
-        <v>68</v>
-      </c>
-      <c r="D24" s="6">
-        <v>79</v>
-      </c>
-      <c r="E24" s="6">
-        <v>9</v>
-      </c>
-      <c r="F24" s="6">
-        <v>11</v>
-      </c>
-      <c r="G24" s="6">
-        <v>22</v>
-      </c>
-      <c r="H24" s="6">
-        <v>33</v>
-      </c>
-      <c r="I24" s="6">
-        <v>44</v>
-      </c>
-      <c r="J24" s="6">
-        <v>46</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="M20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5">
-        <v>67</v>
-      </c>
-      <c r="C25" s="6">
-        <v>78</v>
-      </c>
-      <c r="D25" s="6">
-        <v>8</v>
-      </c>
-      <c r="E25" s="6">
-        <v>10</v>
-      </c>
-      <c r="F25" s="6">
-        <v>21</v>
-      </c>
-      <c r="G25" s="6">
-        <v>32</v>
-      </c>
-      <c r="H25" s="6">
-        <v>43</v>
-      </c>
-      <c r="I25" s="6">
-        <v>54</v>
-      </c>
-      <c r="J25" s="6">
-        <v>56</v>
-      </c>
-      <c r="K25" s="2">
+      <c r="B21" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5">
-        <v>77</v>
-      </c>
-      <c r="C26" s="6">
-        <v>7</v>
-      </c>
-      <c r="D26" s="6">
-        <v>18</v>
-      </c>
-      <c r="E26" s="6">
-        <v>20</v>
-      </c>
-      <c r="F26" s="6">
-        <v>31</v>
-      </c>
-      <c r="G26" s="6">
-        <v>42</v>
-      </c>
-      <c r="H26" s="6">
-        <v>53</v>
-      </c>
-      <c r="I26" s="6">
-        <v>55</v>
-      </c>
-      <c r="J26" s="6">
-        <v>66</v>
-      </c>
-      <c r="K26" s="2">
+      <c r="C21" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5">
-        <v>6</v>
-      </c>
-      <c r="C27" s="6">
-        <v>17</v>
-      </c>
-      <c r="D27" s="6">
-        <v>19</v>
-      </c>
-      <c r="E27" s="6">
-        <v>30</v>
-      </c>
-      <c r="F27" s="8">
-        <v>41</v>
-      </c>
-      <c r="G27" s="6">
-        <v>52</v>
-      </c>
-      <c r="H27" s="6">
-        <v>63</v>
-      </c>
-      <c r="I27" s="6">
-        <v>65</v>
-      </c>
-      <c r="J27" s="6">
-        <v>76</v>
-      </c>
-      <c r="K27" s="2">
+      <c r="D21" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5">
-        <v>16</v>
-      </c>
-      <c r="C28" s="6">
-        <v>27</v>
-      </c>
-      <c r="D28" s="6">
-        <v>29</v>
-      </c>
-      <c r="E28" s="6">
-        <v>40</v>
-      </c>
-      <c r="F28" s="6">
-        <v>51</v>
-      </c>
-      <c r="G28" s="6">
-        <v>62</v>
-      </c>
-      <c r="H28" s="6">
-        <v>64</v>
-      </c>
-      <c r="I28" s="6">
-        <v>75</v>
-      </c>
-      <c r="J28" s="6">
-        <v>5</v>
-      </c>
-      <c r="K28" s="2">
+      <c r="E21" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5">
-        <v>26</v>
-      </c>
-      <c r="C29" s="6">
-        <v>28</v>
-      </c>
-      <c r="D29" s="6">
-        <v>39</v>
-      </c>
-      <c r="E29" s="6">
-        <v>50</v>
-      </c>
-      <c r="F29" s="6">
-        <v>61</v>
-      </c>
-      <c r="G29" s="6">
-        <v>72</v>
-      </c>
-      <c r="H29" s="6">
-        <v>74</v>
-      </c>
-      <c r="I29" s="6">
-        <v>4</v>
-      </c>
-      <c r="J29" s="6">
-        <v>15</v>
-      </c>
-      <c r="K29" s="2">
+      <c r="F21" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5">
-        <v>36</v>
-      </c>
-      <c r="C30" s="6">
-        <v>38</v>
-      </c>
-      <c r="D30" s="6">
-        <v>49</v>
-      </c>
-      <c r="E30" s="6">
-        <v>60</v>
-      </c>
-      <c r="F30" s="6">
-        <v>71</v>
-      </c>
-      <c r="G30" s="6">
-        <v>73</v>
-      </c>
-      <c r="H30" s="6">
-        <v>3</v>
-      </c>
-      <c r="I30" s="6">
-        <v>14</v>
-      </c>
-      <c r="J30" s="6">
-        <v>25</v>
-      </c>
-      <c r="K30" s="2">
+      <c r="G21" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5">
-        <v>37</v>
-      </c>
-      <c r="C31" s="6">
-        <v>48</v>
-      </c>
-      <c r="D31" s="6">
-        <v>59</v>
-      </c>
-      <c r="E31" s="6">
-        <v>70</v>
-      </c>
-      <c r="F31" s="6">
-        <v>81</v>
-      </c>
-      <c r="G31" s="6">
-        <v>2</v>
-      </c>
-      <c r="H31" s="6">
-        <v>13</v>
-      </c>
-      <c r="I31" s="6">
-        <v>24</v>
-      </c>
-      <c r="J31" s="6">
-        <v>35</v>
-      </c>
-      <c r="K31" s="2">
+      <c r="H21" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="I21" s="2">
         <v>369</v>
       </c>
-      <c r="B32" s="2">
+      <c r="J21" s="2">
         <v>369</v>
       </c>
-      <c r="C32" s="2">
-        <v>369</v>
-      </c>
-      <c r="D32" s="2">
-        <v>369</v>
-      </c>
-      <c r="E32" s="2">
-        <v>369</v>
-      </c>
-      <c r="F32" s="2">
-        <v>369</v>
-      </c>
-      <c r="G32" s="2">
-        <v>369</v>
-      </c>
-      <c r="H32" s="2">
-        <v>369</v>
-      </c>
-      <c r="I32" s="2">
-        <v>369</v>
-      </c>
-      <c r="J32" s="2">
-        <v>369</v>
-      </c>
-      <c r="K32" s="2">
+      <c r="K21" s="2">
         <v>369</v>
       </c>
     </row>
@@ -4207,9 +2122,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A5:N18"/>
+  <dimension ref="A5:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4227,7 +2144,7 @@
     <col min="14" max="14" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C5" s="10">
         <v>0</v>
       </c>
@@ -4262,7 +2179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I6" s="10">
         <v>2</v>
       </c>
@@ -4279,7 +2196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>0</v>
       </c>
@@ -4321,7 +2238,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
@@ -4363,7 +2280,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>2</v>
       </c>
@@ -4405,7 +2322,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>3</v>
       </c>
@@ -4447,7 +2364,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>4</v>
       </c>
@@ -4488,8 +2405,11 @@
         <f t="shared" si="0"/>
         <v>671</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>5</v>
       </c>
@@ -4531,7 +2451,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>6</v>
       </c>
@@ -4573,7 +2493,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>7</v>
       </c>
@@ -4615,7 +2535,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>8</v>
       </c>
@@ -4657,7 +2577,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>9</v>
       </c>
@@ -4799,7 +2719,7 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4843,12 +2763,12 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4860,109 +2780,109 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="B4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
+      <c r="B5" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
+      <c r="B6" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
+      <c r="B7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="B8" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -4971,28 +2891,28 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
+      <c r="B9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5011,19 +2931,19 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
+      <c r="B11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -5287,27 +3207,27 @@
         <v>111</v>
       </c>
       <c r="C21" s="2">
-        <f>SUM(C15:C20)</f>
+        <f t="shared" ref="C21:H21" si="1">SUM(C15:C20)</f>
         <v>111</v>
       </c>
       <c r="D21" s="2">
-        <f>SUM(D15:D20)</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="E21" s="2">
-        <f>SUM(E15:E20)</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="F21" s="2">
-        <f>SUM(F15:F20)</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="G21" s="2">
-        <f>SUM(G15:G20)</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="H21" s="2">
-        <f>SUM(H15:H20)</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="I21" s="2">
@@ -5356,23 +3276,23 @@
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5393,16 +3313,16 @@
         <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5423,16 +3343,16 @@
         <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5453,16 +3373,16 @@
         <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -5560,20 +3480,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
@@ -6217,290 +4137,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="B1:E57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Magic Squares.xlsx
+++ b/Magic Squares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\magicbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B398904A-4AC8-4D1D-A6EB-353ABCF82E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138A2626-332D-4A0B-BC1B-138ABC924656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>rule 1 start with top center</t>
   </si>
@@ -121,12 +121,47 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>GENERAL RULE: You always try to go diagonally up towards the right</t>
+  </si>
+  <si>
+    <t>rule 4 if you out of the box from the right by following rule 2 you select the first column from the row above (immediate row)</t>
+  </si>
+  <si>
+    <t>rule 3 if you go out of the box from the top by following rule 2 you select the last row from that column (immediate column)</t>
+  </si>
+  <si>
+    <r>
+      <t>n(n^</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 1)/2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -159,6 +194,34 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -297,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -353,11 +416,11 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,17 +642,19 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="59.6640625" customWidth="1"/>
+    <col min="5" max="5" width="69" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -600,11 +665,11 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -613,12 +678,12 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -626,12 +691,12 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
@@ -643,12 +708,12 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
@@ -660,12 +725,12 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
@@ -675,12 +740,12 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
@@ -738,7 +803,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="26">
-        <f t="shared" ref="E11:E13" si="0">SUM(B11:D11)</f>
+        <f>SUM(B11:D11)</f>
         <v>15</v>
       </c>
       <c r="F11" s="1"/>
@@ -760,7 +825,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:E13" si="0">SUM(B12:D12)</f>
         <v>15</v>
       </c>
     </row>
@@ -818,7 +883,9 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="33" t="s">
+        <v>34</v>
+      </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -881,6 +948,7 @@
     <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -889,10 +957,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -930,11 +998,11 @@
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -942,62 +1010,62 @@
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -1208,6 +1276,11 @@
       <c r="H19" s="9">
         <f>SUM(C14,D15,E16,F17,G18)</f>
         <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1260,11 +1333,11 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1273,67 +1346,67 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1633,11 +1706,11 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1648,75 +1721,75 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2029,7 +2102,7 @@
       <c r="K19" s="2">
         <v>369</v>
       </c>
-      <c r="M19" s="31" t="s">
+      <c r="M19" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2763,12 +2836,12 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2785,19 +2858,19 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -2807,21 +2880,21 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
         <v>9</v>
@@ -2829,21 +2902,21 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
         <v>10</v>
@@ -2851,38 +2924,38 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2891,22 +2964,22 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2931,19 +3004,19 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -3480,20 +3553,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>

--- a/Magic Squares.xlsx
+++ b/Magic Squares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\magicbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138A2626-332D-4A0B-BC1B-138ABC924656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F1C3E3-8D00-4139-AC9A-51069817CC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>rule 1 start with top center</t>
   </si>
@@ -156,12 +156,51 @@
       <t xml:space="preserve"> + 1)/2</t>
     </r>
   </si>
+  <si>
+    <t>to test</t>
+  </si>
+  <si>
+    <t>testToCheckCorrectCalcOfNextRowColumn()</t>
+  </si>
+  <si>
+    <t>expected = {row=2,col=2}</t>
+  </si>
+  <si>
+    <t>result = calculateNextRowCol(0,1)</t>
+  </si>
+  <si>
+    <t>LOGIC</t>
+  </si>
+  <si>
+    <t>TEST NAME</t>
+  </si>
+  <si>
+    <t>ACTUAL METHOD</t>
+  </si>
+  <si>
+    <t>EXPECTED VALUE</t>
+  </si>
+  <si>
+    <t>RULE?</t>
+  </si>
+  <si>
+    <t>rule 3</t>
+  </si>
+  <si>
+    <t>testToCheckRule3()</t>
+  </si>
+  <si>
+    <t>result = applyRule3(0,1)</t>
+  </si>
+  <si>
+    <t>all rules</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -225,8 +264,30 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,8 +336,32 @@
         <bgColor rgb="FF6D9EEB"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -356,11 +441,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -417,10 +539,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,313 +771,278 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="69" customWidth="1"/>
+    <col min="4" max="4" width="75.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" style="36" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" style="37" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="24">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
         <v>8</v>
       </c>
-      <c r="C11" s="25">
+      <c r="B12" s="25">
         <v>1</v>
       </c>
-      <c r="D11" s="25">
+      <c r="C12" s="25">
         <v>6</v>
       </c>
-      <c r="E11" s="26">
-        <f>SUM(B11:D11)</f>
+      <c r="D12" s="26">
+        <f>SUM(A12:C12)</f>
         <v>15</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="27">
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
         <v>3</v>
       </c>
-      <c r="C12" s="28">
+      <c r="B13" s="28">
         <v>5</v>
       </c>
-      <c r="D12" s="28">
+      <c r="C13" s="28">
         <v>7</v>
       </c>
-      <c r="E12" s="26">
-        <f t="shared" ref="E12:E13" si="0">SUM(B12:D12)</f>
+      <c r="D13" s="26">
+        <f t="shared" ref="D13:D14" si="0">SUM(A13:C13)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="27">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
         <v>4</v>
       </c>
-      <c r="C13" s="28">
+      <c r="B14" s="28">
         <v>9</v>
       </c>
-      <c r="D13" s="28">
+      <c r="C14" s="28">
         <v>2</v>
       </c>
-      <c r="E13" s="26">
+      <c r="D14" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="26">
-        <f t="shared" ref="B14:D14" si="1">SUM(B11:B13)</f>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26">
+        <f t="shared" ref="A15:C15" si="1">SUM(A12:A14)</f>
         <v>15</v>
       </c>
-      <c r="C14" s="26">
+      <c r="B15" s="26">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D14" s="26">
+      <c r="C15" s="26">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E14" s="26">
-        <f>SUM(B11,C12,D13
+      <c r="D15" s="26">
+        <f>SUM(A12,B13,C14
 )</f>
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -998,11 +1095,11 @@
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1010,62 +1107,62 @@
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -1333,11 +1430,11 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1346,67 +1443,67 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1706,11 +1803,11 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1721,75 +1818,75 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2836,12 +2933,12 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2858,19 +2955,19 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -2880,21 +2977,21 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
         <v>9</v>
@@ -2902,21 +2999,21 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
         <v>10</v>
@@ -2924,38 +3021,38 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2964,22 +3061,22 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3004,19 +3101,19 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -3553,20 +3650,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
